--- a/dataset_empleados_limpio.xlsx
+++ b/dataset_empleados_limpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaías\Desktop\3er año - 2023\Probabilidad y Estadística\IntegradorPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1AE9D2-7529-4626-A650-ADE40AB437B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5A988-4373-4274-95FD-0F0AB05F88D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataset_empleados_limpio.xlsx
+++ b/dataset_empleados_limpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaías\Desktop\3er año - 2023\Probabilidad y Estadística\IntegradorPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C5A988-4373-4274-95FD-0F0AB05F88D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FB1E0-4616-4384-987D-739CD025AE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Procesamiento de Lenguaje Natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aplicaciones Móviles</t>
   </si>
   <si>
     <t xml:space="preserve"> Análisis de Datos de Salud</t>
@@ -515,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +909,7 @@
         <v>40</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -950,7 +947,7 @@
         <v>45</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -988,7 +985,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1026,7 +1023,7 @@
         <v>47</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1064,7 +1061,7 @@
         <v>41</v>
       </c>
       <c r="L14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1140,7 +1137,7 @@
         <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1254,7 +1251,7 @@
         <v>44</v>
       </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1330,7 +1327,7 @@
         <v>49</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1406,7 +1403,7 @@
         <v>47</v>
       </c>
       <c r="L23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1558,7 +1555,7 @@
         <v>45</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1672,7 +1669,7 @@
         <v>41</v>
       </c>
       <c r="L30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1786,7 +1783,7 @@
         <v>44</v>
       </c>
       <c r="L33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1824,7 +1821,7 @@
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1900,7 +1897,7 @@
         <v>43</v>
       </c>
       <c r="L36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -1938,7 +1935,7 @@
         <v>40</v>
       </c>
       <c r="L37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1976,7 +1973,7 @@
         <v>45</v>
       </c>
       <c r="L38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2014,7 +2011,7 @@
         <v>42</v>
       </c>
       <c r="L39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -2166,7 +2163,7 @@
         <v>45</v>
       </c>
       <c r="L43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2204,7 +2201,7 @@
         <v>47</v>
       </c>
       <c r="L44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2242,7 +2239,7 @@
         <v>42</v>
       </c>
       <c r="L45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2318,7 +2315,7 @@
         <v>43</v>
       </c>
       <c r="L47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2394,7 +2391,7 @@
         <v>47</v>
       </c>
       <c r="L49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2432,7 +2429,7 @@
         <v>45</v>
       </c>
       <c r="L50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/dataset_empleados_limpio.xlsx
+++ b/dataset_empleados_limpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaías\Desktop\3er año - 2023\Probabilidad y Estadística\IntegradorPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1FB1E0-4616-4384-987D-739CD025AE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499EFDB4-F1A9-402A-9422-A584FF0695AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
@@ -523,7 +523,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" customWidth="1"/>

--- a/dataset_empleados_limpio.xlsx
+++ b/dataset_empleados_limpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Isaías\Desktop\3er año - 2023\Probabilidad y Estadística\IntegradorPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499EFDB4-F1A9-402A-9422-A584FF0695AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB81808-EA88-4CFD-9E16-3B618C7F6FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -198,24 +198,6 @@
     <t>R, Python</t>
   </si>
   <si>
-    <t xml:space="preserve"> Desarrollo Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Seguridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desarrollo Móvil </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inteligencia Artificial </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Análisis de Datos </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ciberseguridad </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aplicación Móvil</t>
   </si>
   <si>
@@ -256,6 +238,45 @@
   </si>
   <si>
     <t xml:space="preserve"> Realidad Aumentada</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Desarrollo Web</t>
+  </si>
+  <si>
+    <t>Seguridad</t>
+  </si>
+  <si>
+    <t>Lenguajes_Programacion_Limpio</t>
+  </si>
+  <si>
+    <t>Ciberseguridad</t>
+  </si>
+  <si>
+    <t>Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inteligencia Artificial </t>
+  </si>
+  <si>
+    <t>Análisis de Datos</t>
+  </si>
+  <si>
+    <t>Desarrollo Móvil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t>Especializacion_Agrupados</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
   </si>
 </sst>
 </file>
@@ -314,16 +335,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Empleados" displayName="Empleados" ref="A1:L1048576" totalsRowShown="0">
-  <autoFilter ref="A1:L1048576" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Empleados" displayName="Empleados" ref="A1:N1048576" totalsRowShown="0">
+  <autoFilter ref="A1:N1048576" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Genero"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Nivel_Educacion"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Edad"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Experiencia_Laboral"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Especializacion"/>
+    <tableColumn id="13" xr3:uid="{AA62009C-B655-42B9-9BF6-B4A28B4F3E4E}" name="Especializacion_Agrupados"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Lenguajes_Programacion"/>
+    <tableColumn id="15" xr3:uid="{E9A0F72F-34F8-41D3-820D-2EA41653A739}" name="Lenguajes_Programacion_Limpio"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo_Empresa"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ubicacion_Geografica"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Salario"/>
@@ -510,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,16 +546,18 @@
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,25 +577,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -587,28 +618,34 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1">
+        <v>60000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1">
-        <v>60000</v>
-      </c>
-      <c r="K2" s="1">
-        <v>40</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -625,28 +662,34 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1">
+        <v>80000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>45</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1">
-        <v>80000</v>
-      </c>
-      <c r="K3" s="1">
-        <v>45</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -663,28 +706,34 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1">
+        <v>55000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="1">
-        <v>55000</v>
-      </c>
-      <c r="K4" s="1">
-        <v>42</v>
-      </c>
-      <c r="L4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -701,28 +750,34 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1">
+        <v>95000</v>
+      </c>
+      <c r="M5" s="1">
+        <v>50</v>
+      </c>
+      <c r="N5" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1">
-        <v>95000</v>
-      </c>
-      <c r="K5" s="1">
-        <v>50</v>
-      </c>
-      <c r="L5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -739,28 +794,34 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1">
+        <v>62000</v>
+      </c>
+      <c r="M6" s="1">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1">
-        <v>62000</v>
-      </c>
-      <c r="K6" s="1">
-        <v>38</v>
-      </c>
-      <c r="L6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -777,28 +838,34 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="1">
+      <c r="L7" s="1">
         <v>72000</v>
       </c>
-      <c r="K7" s="1">
+      <c r="M7" s="1">
         <v>44</v>
       </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -815,28 +882,34 @@
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
         <v>58000</v>
       </c>
-      <c r="K8" s="1">
+      <c r="M8" s="1">
         <v>38</v>
       </c>
-      <c r="L8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -853,28 +926,34 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>85000</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M9" s="1">
         <v>48</v>
       </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -891,28 +970,34 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>61000</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M10" s="1">
         <v>40</v>
       </c>
-      <c r="L10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -929,28 +1014,34 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>92000</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M11" s="1">
         <v>45</v>
       </c>
-      <c r="L11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -967,28 +1058,34 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="1">
+      <c r="L12" s="1">
         <v>64000</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M12" s="1">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1005,28 +1102,34 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="1">
+      <c r="L13" s="1">
         <v>79000</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M13" s="1">
         <v>47</v>
       </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1043,28 +1146,34 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="1">
+      <c r="L14" s="1">
         <v>54000</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M14" s="1">
         <v>41</v>
       </c>
-      <c r="L14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1081,28 +1190,34 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="1">
+        <v>97000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>51</v>
+      </c>
+      <c r="N15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="1">
-        <v>97000</v>
-      </c>
-      <c r="K15" s="1">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1119,28 +1234,34 @@
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="1">
+      <c r="L16" s="1">
         <v>63000</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M16" s="1">
         <v>40</v>
       </c>
-      <c r="L16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1157,28 +1278,34 @@
         <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>71000</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
         <v>46</v>
       </c>
-      <c r="L17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1195,28 +1322,34 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="1">
+      <c r="L18" s="1">
         <v>59000</v>
       </c>
-      <c r="K18" s="1">
+      <c r="M18" s="1">
         <v>39</v>
       </c>
-      <c r="L18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1233,28 +1366,34 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="1">
+      <c r="L19" s="1">
         <v>91000</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>44</v>
       </c>
-      <c r="L19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1271,28 +1410,34 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="1">
+      <c r="L20" s="1">
         <v>66000</v>
       </c>
-      <c r="K20" s="1">
+      <c r="M20" s="1">
         <v>43</v>
       </c>
-      <c r="L20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1309,28 +1454,34 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="1">
+      <c r="L21" s="1">
         <v>82000</v>
       </c>
-      <c r="K21" s="1">
+      <c r="M21" s="1">
         <v>49</v>
       </c>
-      <c r="L21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1347,28 +1498,34 @@
         <v>5</v>
       </c>
       <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L22" s="1">
+        <v>59000</v>
+      </c>
+      <c r="M22" s="1">
+        <v>41</v>
+      </c>
+      <c r="N22" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="1">
-        <v>59000</v>
-      </c>
-      <c r="K22" s="1">
-        <v>41</v>
-      </c>
-      <c r="L22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1385,28 +1542,34 @@
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" t="s">
+        <v>40</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="1">
+      <c r="L23" s="1">
         <v>71000</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M23" s="1">
         <v>47</v>
       </c>
-      <c r="L23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1423,28 +1586,34 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="1">
+        <v>64000</v>
+      </c>
+      <c r="M24" s="1">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="1">
-        <v>64000</v>
-      </c>
-      <c r="K24" s="1">
-        <v>39</v>
-      </c>
-      <c r="L24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1461,28 +1630,34 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="1">
+        <v>93000</v>
+      </c>
+      <c r="M25" s="1">
+        <v>50</v>
+      </c>
+      <c r="N25" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="1">
-        <v>93000</v>
-      </c>
-      <c r="K25" s="1">
-        <v>50</v>
-      </c>
-      <c r="L25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1499,28 +1674,34 @@
         <v>6</v>
       </c>
       <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="1">
+        <v>61000</v>
+      </c>
+      <c r="M26" s="1">
+        <v>39</v>
+      </c>
+      <c r="N26" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="1">
-        <v>61000</v>
-      </c>
-      <c r="K26" s="1">
-        <v>39</v>
-      </c>
-      <c r="L26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1537,28 +1718,34 @@
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="1">
+      <c r="L27" s="1">
         <v>84000</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M27" s="1">
         <v>45</v>
       </c>
-      <c r="L27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1575,28 +1762,34 @@
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J28" s="1">
+      <c r="L28" s="1">
         <v>57000</v>
       </c>
-      <c r="K28" s="1">
+      <c r="M28" s="1">
         <v>38</v>
       </c>
-      <c r="L28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1613,28 +1806,34 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="1">
+      <c r="L29" s="1">
         <v>96000</v>
       </c>
-      <c r="K29" s="1">
+      <c r="M29" s="1">
         <v>49</v>
       </c>
-      <c r="L29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1651,28 +1850,34 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J30" s="1">
+      <c r="L30" s="1">
         <v>62000</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M30" s="1">
         <v>41</v>
       </c>
-      <c r="L30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1689,28 +1894,34 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J31" s="1">
+      <c r="L31" s="1">
         <v>72000</v>
       </c>
-      <c r="K31" s="1">
+      <c r="M31" s="1">
         <v>46</v>
       </c>
-      <c r="L31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1727,28 +1938,34 @@
         <v>12</v>
       </c>
       <c r="F32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="1">
+        <v>82000</v>
+      </c>
+      <c r="M32" s="1">
+        <v>42</v>
+      </c>
+      <c r="N32" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="1">
-        <v>82000</v>
-      </c>
-      <c r="K32" s="1">
-        <v>42</v>
-      </c>
-      <c r="L32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1765,28 +1982,34 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="1">
+      <c r="L33" s="1">
         <v>76000</v>
       </c>
-      <c r="K33" s="1">
+      <c r="M33" s="1">
         <v>44</v>
       </c>
-      <c r="L33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1803,28 +2026,34 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" t="s">
+        <v>36</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="1">
+      <c r="L34" s="1">
         <v>69000</v>
       </c>
-      <c r="K34" s="1">
+      <c r="M34" s="1">
         <v>38</v>
       </c>
-      <c r="L34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1841,28 +2070,34 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="1">
+        <v>95000</v>
+      </c>
+      <c r="M35" s="1">
+        <v>47</v>
+      </c>
+      <c r="N35" t="s">
         <v>60</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="1">
-        <v>95000</v>
-      </c>
-      <c r="K35" s="1">
-        <v>47</v>
-      </c>
-      <c r="L35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1879,28 +2114,34 @@
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="1">
+      <c r="L36" s="1">
         <v>78000</v>
       </c>
-      <c r="K36" s="1">
+      <c r="M36" s="1">
         <v>43</v>
       </c>
-      <c r="L36" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1917,28 +2158,34 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="1">
+      <c r="L37" s="1">
         <v>69000</v>
       </c>
-      <c r="K37" s="1">
+      <c r="M37" s="1">
         <v>40</v>
       </c>
-      <c r="L37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="N37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1955,28 +2202,34 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J38" s="1">
+      <c r="L38" s="1">
         <v>78000</v>
       </c>
-      <c r="K38" s="1">
+      <c r="M38" s="1">
         <v>45</v>
       </c>
-      <c r="L38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1993,28 +2246,34 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J39" s="1">
+      <c r="L39" s="1">
         <v>72000</v>
       </c>
-      <c r="K39" s="1">
+      <c r="M39" s="1">
         <v>42</v>
       </c>
-      <c r="L39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2031,28 +2290,34 @@
         <v>14</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
-      </c>
-      <c r="G40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J40" s="1">
+      <c r="L40" s="1">
         <v>91000</v>
       </c>
-      <c r="K40" s="1">
+      <c r="M40" s="1">
         <v>50</v>
       </c>
-      <c r="L40" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2069,28 +2334,34 @@
         <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="1">
+      <c r="L41" s="1">
         <v>73000</v>
       </c>
-      <c r="K41" s="1">
+      <c r="M41" s="1">
         <v>41</v>
       </c>
-      <c r="L41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2107,28 +2378,34 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="1">
+      <c r="L42" s="1">
         <v>66000</v>
       </c>
-      <c r="K42" s="1">
+      <c r="M42" s="1">
         <v>40</v>
       </c>
-      <c r="L42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2145,28 +2422,34 @@
         <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" t="s">
+        <v>72</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="1">
+      <c r="L43" s="1">
         <v>89000</v>
       </c>
-      <c r="K43" s="1">
+      <c r="M43" s="1">
         <v>45</v>
       </c>
-      <c r="L43" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2183,28 +2466,34 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J44" s="1">
+      <c r="L44" s="1">
         <v>81000</v>
       </c>
-      <c r="K44" s="1">
+      <c r="M44" s="1">
         <v>47</v>
       </c>
-      <c r="L44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2221,28 +2510,34 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="1">
+      <c r="L45" s="1">
         <v>72000</v>
       </c>
-      <c r="K45" s="1">
+      <c r="M45" s="1">
         <v>42</v>
       </c>
-      <c r="L45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2259,28 +2554,34 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L46" s="1">
+        <v>93000</v>
+      </c>
+      <c r="M46" s="1">
+        <v>48</v>
+      </c>
+      <c r="N46" t="s">
         <v>60</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="1">
-        <v>93000</v>
-      </c>
-      <c r="K46" s="1">
-        <v>48</v>
-      </c>
-      <c r="L46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2297,28 +2598,34 @@
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J47" s="1">
+      <c r="L47" s="1">
         <v>75000</v>
       </c>
-      <c r="K47" s="1">
+      <c r="M47" s="1">
         <v>43</v>
       </c>
-      <c r="L47" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2335,28 +2642,34 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L48" s="1">
+        <v>68000</v>
+      </c>
+      <c r="M48" s="1">
+        <v>41</v>
+      </c>
+      <c r="N48" t="s">
         <v>57</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="1">
-        <v>68000</v>
-      </c>
-      <c r="K48" s="1">
-        <v>41</v>
-      </c>
-      <c r="L48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2373,28 +2686,34 @@
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
-      </c>
-      <c r="G49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="1">
+      <c r="L49" s="1">
         <v>82000</v>
       </c>
-      <c r="K49" s="1">
+      <c r="M49" s="1">
         <v>47</v>
       </c>
-      <c r="L49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2411,25 +2730,31 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
-      </c>
-      <c r="G50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J50" s="1">
+      <c r="L50" s="1">
         <v>70000</v>
       </c>
-      <c r="K50" s="1">
+      <c r="M50" s="1">
         <v>45</v>
       </c>
-      <c r="L50" t="s">
-        <v>72</v>
+      <c r="N50" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
